--- a/Timing_data.xlsx
+++ b/Timing_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul_Inspiron\Desktop\stuf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\M.Tech\ELP 831 IEC Lab\Rahul_Kumar_2021EEN2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E55A17-1514-4C63-BD07-83ED3C31DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DEB686-7FA5-448A-83B7-25FF062E742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{828CC871-314E-4067-9ACA-2D9BDB328B03}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>INV</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>input signal tf:10fs</t>
+  </si>
+  <si>
+    <t>Layout Size = 1.4 x 60 micro meter</t>
+  </si>
+  <si>
+    <t>All value are in pico secends</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +467,9 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -615,6 +624,9 @@
       <c r="F8">
         <f t="shared" si="0"/>
         <v>96.729399999999998</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
